--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="Sprint 5 - Day One" sheetId="34" r:id="rId14"/>
     <sheet name="Sprint 5 - Day Two" sheetId="32" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Burndown Chart Sprint 1 - Day One</t>
   </si>
@@ -107,6 +107,45 @@
   <si>
     <t>Burndown Chart Sprint 5 - Day One</t>
   </si>
+  <si>
+    <t>Sprint Backlog :</t>
+  </si>
+  <si>
+    <t>Penjelasan secara Umum : Elemen pada Dota2 (Game Mode, Aktor, Item)</t>
+  </si>
+  <si>
+    <t>Warding : Penjelasan</t>
+  </si>
+  <si>
+    <t>Hero Guide Sniper : Penjelasan Singkat (Tipe, Skills)</t>
+  </si>
+  <si>
+    <t>Nama Backlog</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Role : Carry</t>
+  </si>
+  <si>
+    <t>Edit Fungsionalitas dan Tampilan Bespoke</t>
+  </si>
+  <si>
+    <t>Total =</t>
+  </si>
+  <si>
+    <t>Burndown Chart :</t>
+  </si>
+  <si>
+    <t>Penjelasan secara Umum : Apa itu Dota2?</t>
+  </si>
 </sst>
 </file>
 
@@ -138,15 +177,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -154,15 +199,388 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,6 +597,954 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 1 - Day One'!$H$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Day One'!$H$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="191393904"/>
+        <c:axId val="191394296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="191393904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191394296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="191394296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191393904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1670,9 +3036,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W7"/>
+  <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1824,11 +3190,175 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="27">
+        <v>24</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="28">
+        <v>48</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="27">
+        <v>24</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="27">
+        <v>48</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="27">
+        <v>48</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="28">
+        <v>48</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="19">
+        <f>SUM(H13:H20)</f>
+        <v>240</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" ref="I21:J21" si="0">SUM(I13:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
     <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Burndown Chart Sprint 1 - Day One</t>
   </si>
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -525,6 +525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,6 +564,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -582,13 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125497200"/>
-        <c:axId val="125497592"/>
+        <c:axId val="123661896"/>
+        <c:axId val="123663072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125497200"/>
+        <c:axId val="123661896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125497592"/>
+        <c:crossAx val="123663072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -875,7 +884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125497592"/>
+        <c:axId val="123663072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125497200"/>
+        <c:crossAx val="123661896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,11 +1207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195757512"/>
-        <c:axId val="195763000"/>
+        <c:axId val="125165728"/>
+        <c:axId val="125166120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195757512"/>
+        <c:axId val="125165728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195763000"/>
+        <c:crossAx val="125166120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1252,7 +1261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195763000"/>
+        <c:axId val="125166120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1311,384 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195757512"/>
+        <c:crossAx val="125165728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 1 - Day Two'!$H$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Day Two'!$H$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="123148912"/>
+        <c:axId val="123148520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="123148912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123148520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123148520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123148912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1442,6 +1828,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1939,6 +2365,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2470,6 +3392,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2800,150 +3759,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -3020,150 +3979,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3184,150 +4143,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3348,150 +4307,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3512,150 +4471,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3676,150 +4635,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3840,150 +4799,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3997,157 +4956,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -4156,13 +5113,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -4174,13 +5131,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="12">
         <v>40</v>
       </c>
@@ -4188,28 +5145,28 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="32">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="37">
         <v>40</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -4226,13 +5183,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="12">
         <v>40</v>
       </c>
@@ -4240,13 +5197,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="12">
         <v>40</v>
       </c>
@@ -4254,28 +5211,28 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="32">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="37">
         <v>60</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -4330,155 +5287,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -4487,13 +5444,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -4505,13 +5462,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -4521,30 +5478,30 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="32">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="37">
         <v>40</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="39">
         <v>40</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -4563,13 +5520,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -4579,13 +5536,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -4595,30 +5552,30 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="32">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="37">
         <v>60</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="39">
         <v>25</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -4670,165 +5627,355 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W7"/>
+  <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="18">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="37">
+        <v>40</v>
+      </c>
+      <c r="I14" s="39">
+        <v>40</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="18">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="18">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5">
+        <v>40</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="18">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="37">
+        <v>60</v>
+      </c>
+      <c r="I19" s="39">
+        <v>25</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUM(H13:H20)</f>
+        <v>260</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" ref="I21:J21" si="0">SUM(I13:I20)</f>
+        <v>130</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
     <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4843,150 +5990,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5007,150 +6154,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5171,150 +6318,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5335,150 +6482,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5499,150 +6646,150 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -537,6 +537,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -545,30 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -599,6 +581,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -765,7 +764,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -830,11 +828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="123661896"/>
-        <c:axId val="123663072"/>
+        <c:axId val="128320528"/>
+        <c:axId val="128321312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123661896"/>
+        <c:axId val="128320528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123663072"/>
+        <c:crossAx val="128321312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -884,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123663072"/>
+        <c:axId val="128321312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123661896"/>
+        <c:crossAx val="128320528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1142,7 +1139,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1207,11 +1203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125165728"/>
-        <c:axId val="125166120"/>
+        <c:axId val="128322096"/>
+        <c:axId val="128322488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125165728"/>
+        <c:axId val="128322096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125166120"/>
+        <c:crossAx val="128322488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125166120"/>
+        <c:axId val="128322488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125165728"/>
+        <c:crossAx val="128322096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,11 +1580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="123148912"/>
-        <c:axId val="123148520"/>
+        <c:axId val="128323272"/>
+        <c:axId val="126128096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123148912"/>
+        <c:axId val="128323272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123148520"/>
+        <c:crossAx val="126128096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1638,7 +1634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123148520"/>
+        <c:axId val="126128096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123148912"/>
+        <c:crossAx val="128323272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5113,13 +5109,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -5131,13 +5127,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="12">
         <v>40</v>
       </c>
@@ -5145,28 +5141,28 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="37">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="31">
         <v>40</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -5183,13 +5179,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="12">
         <v>40</v>
       </c>
@@ -5197,13 +5193,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="12">
         <v>40</v>
       </c>
@@ -5211,28 +5207,28 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="37">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="31">
         <v>60</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -5263,6 +5259,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="C12:G12"/>
@@ -5270,12 +5272,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B2:W7"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5444,13 +5440,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -5462,13 +5458,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -5478,30 +5474,30 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="37">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="31">
         <v>40</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="33">
         <v>40</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -5520,13 +5516,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -5536,13 +5532,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -5552,30 +5548,30 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="37">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="31">
         <v>60</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="33">
         <v>25</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -5606,12 +5602,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -5619,6 +5609,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5786,13 +5782,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
@@ -5804,13 +5800,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="18">
         <v>40</v>
       </c>
@@ -5822,32 +5818,32 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="37">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="31">
         <v>40</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="33">
         <v>40</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -5868,13 +5864,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="18">
         <v>40</v>
       </c>
@@ -5886,13 +5882,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="18">
         <v>40</v>
       </c>
@@ -5904,32 +5900,32 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="37">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="31">
         <v>60</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="33">
         <v>25</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -5960,6 +5956,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -5967,12 +5969,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Burndown Chart Sprint 1 - Day One</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Burndown Chart Sprint 1 - Day Three</t>
-  </si>
-  <si>
-    <t>Burndown Chart Sprint 2 - Day One</t>
   </si>
   <si>
     <t>Burndown Chart Sprint 2 - Day Two</t>
@@ -149,6 +146,36 @@
   <si>
     <t>Ket : Satuan waktu dalam Menit.</t>
   </si>
+  <si>
+    <t>Burndown Chart Sprint 2 - Day ONE</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumat </t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : Game Mode Dota 2(Penjelasan , Beberapa Contoh)</t>
+  </si>
+  <si>
+    <t>Warding : Manfaat Warding</t>
+  </si>
+  <si>
+    <t>Role : Lane Support</t>
+  </si>
+  <si>
+    <t>Guide Sniper : Item Build (Early , Mid , Late)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role : Disabler </t>
+  </si>
+  <si>
+    <t>Penjelasan Secara Umum : "Aktor " yang ada pada Dota2 (penjelasan untuk Creeps, Neutral Creeps, Tower, Ancient ,Hero)</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -482,11 +509,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -534,14 +652,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -551,6 +672,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -583,22 +728,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,6 +857,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -764,6 +959,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -828,11 +1024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128320528"/>
-        <c:axId val="128321312"/>
+        <c:axId val="1545208560"/>
+        <c:axId val="1545211824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128320528"/>
+        <c:axId val="1545208560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +1070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128321312"/>
+        <c:crossAx val="1545211824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128321312"/>
+        <c:axId val="1545211824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128320528"/>
+        <c:crossAx val="1545208560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,6 +1234,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,6 +1336,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1203,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128322096"/>
-        <c:axId val="128322488"/>
+        <c:axId val="1545205840"/>
+        <c:axId val="1545212912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128322096"/>
+        <c:axId val="1545205840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128322488"/>
+        <c:crossAx val="1545212912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128322488"/>
+        <c:axId val="1545212912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128322096"/>
+        <c:crossAx val="1545205840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,11 +1778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128323272"/>
-        <c:axId val="126128096"/>
+        <c:axId val="1545200944"/>
+        <c:axId val="1545202576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128323272"/>
+        <c:axId val="1545200944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126128096"/>
+        <c:crossAx val="1545202576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126128096"/>
+        <c:axId val="1545202576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1882,384 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128323272"/>
+        <c:crossAx val="1545200944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2 - Day One'!$H$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jumat </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2 - Day One'!$H$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="340018480"/>
+        <c:axId val="340026640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="340018480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340026640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340026640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340018480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,6 +2439,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -2857,6 +3472,502 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3425,6 +4536,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3752,207 +4900,207 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3969,156 +5117,156 @@
   <dimension ref="B2:W7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4136,153 +5284,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4300,153 +5448,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4464,153 +5612,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4628,153 +5776,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4792,153 +5940,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4952,221 +6100,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="12">
         <v>40</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="31">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="40">
         <v>40</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I14" s="42"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5178,61 +6326,61 @@
       <c r="I16" s="5"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+    <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="12">
         <v>40</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="12">
         <v>40</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="31">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="40">
         <v>60</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="42"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(H13:H20)</f>
@@ -5247,24 +6395,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:W7"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="C12:G12"/>
@@ -5272,6 +6414,12 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5283,188 +6431,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -5473,35 +6621,35 @@
       </c>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="31">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="40">
         <v>40</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="42">
         <v>40</v>
       </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5515,14 +6663,14 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -5531,14 +6679,14 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -5547,35 +6695,35 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="31">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="40">
         <v>60</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="42">
         <v>25</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(H13:H20)</f>
@@ -5590,16 +6738,374 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:W85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="18">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="40">
+        <v>40</v>
+      </c>
+      <c r="I14" s="42">
+        <v>40</v>
+      </c>
+      <c r="J14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="18">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="18">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5">
+        <v>40</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="18">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="40">
+        <v>60</v>
+      </c>
+      <c r="I19" s="42">
+        <v>25</v>
+      </c>
+      <c r="J19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUM(H13:H20)</f>
+        <v>260</v>
+      </c>
+      <c r="I21" s="7">
+        <f>SUM(I13:I20)</f>
+        <v>130</v>
+      </c>
+      <c r="J21" s="8">
+        <f>SUM(J13:J20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B2:W7"/>
@@ -5621,521 +7127,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="56">
         <v>30</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="35" t="s">
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="40">
+        <v>45</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="20">
+        <v>65</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="20">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="20">
+        <v>40</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="57">
+        <v>65</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="47">
+        <f>SUM(H13:H20)</f>
+        <v>265</v>
+      </c>
+      <c r="I21" s="47">
+        <f>SUM(I13:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="70">
+        <f>SUM(J13:J20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="18">
-        <v>40</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="31">
-        <v>40</v>
-      </c>
-      <c r="I14" s="33">
-        <v>40</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="18">
-        <v>40</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="18">
-        <v>40</v>
-      </c>
-      <c r="I17" s="5">
-        <v>40</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="18">
-        <v>40</v>
-      </c>
-      <c r="I18" s="5">
-        <v>25</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="31">
-        <v>60</v>
-      </c>
-      <c r="I19" s="33">
-        <v>25</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="6">
-        <f>SUM(H13:H20)</f>
-        <v>260</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" ref="I21:J21" si="0">SUM(I13:I20)</f>
-        <v>130</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B2:W7"/>
+  <mergeCells count="11">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W7"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:W7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6143,157 +7465,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6311,153 +7633,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6475,153 +7797,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6639,153 +7961,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -147,9 +147,6 @@
     <t>Ket : Satuan waktu dalam Menit.</t>
   </si>
   <si>
-    <t>Burndown Chart Sprint 2 - Day ONE</t>
-  </si>
-  <si>
     <t>Kamis</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Penjelasan Secara Umum : "Aktor " yang ada pada Dota2 (penjelasan untuk Creeps, Neutral Creeps, Tower, Ancient ,Hero)</t>
+  </si>
+  <si>
+    <t>Burndown Chart Sprint 2 - Day One</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -672,30 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -728,46 +744,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,12 +783,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,7 +857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +958,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1024,11 +1022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1545208560"/>
-        <c:axId val="1545211824"/>
+        <c:axId val="-2051985424"/>
+        <c:axId val="-2051987056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1545208560"/>
+        <c:axId val="-2051985424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545211824"/>
+        <c:crossAx val="-2051987056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1545211824"/>
+        <c:axId val="-2051987056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545208560"/>
+        <c:crossAx val="-2051985424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,7 +1232,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1336,7 +1333,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1401,11 +1397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1545205840"/>
-        <c:axId val="1545212912"/>
+        <c:axId val="-2051988144"/>
+        <c:axId val="-2051986512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1545205840"/>
+        <c:axId val="-2051988144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545212912"/>
+        <c:crossAx val="-2051986512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1545212912"/>
+        <c:axId val="-2051986512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545205840"/>
+        <c:crossAx val="-2051988144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,7 +1607,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1713,7 +1708,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1778,11 +1772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1545200944"/>
-        <c:axId val="1545202576"/>
+        <c:axId val="-704290448"/>
+        <c:axId val="-704277936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1545200944"/>
+        <c:axId val="-704290448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545202576"/>
+        <c:crossAx val="-704277936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1832,7 +1826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1545202576"/>
+        <c:axId val="-704277936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545200944"/>
+        <c:crossAx val="-704290448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,7 +2129,7 @@
                   <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2155,11 +2149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="340018480"/>
-        <c:axId val="340026640"/>
+        <c:axId val="-2044553616"/>
+        <c:axId val="-2044551440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340018480"/>
+        <c:axId val="-2044553616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340026640"/>
+        <c:crossAx val="-2044551440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340026640"/>
+        <c:axId val="-2044551440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340018480"/>
+        <c:crossAx val="-2044553616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4903,150 +4897,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -5123,150 +5117,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5287,150 +5281,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5451,150 +5445,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5615,150 +5609,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5779,150 +5773,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5943,150 +5937,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6105,150 +6099,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -6257,13 +6251,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
@@ -6275,13 +6269,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="12">
         <v>40</v>
       </c>
@@ -6289,28 +6283,28 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="40">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="46">
         <v>40</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="32"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -6327,13 +6321,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="12">
         <v>40</v>
       </c>
@@ -6341,13 +6335,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="12">
         <v>40</v>
       </c>
@@ -6355,28 +6349,28 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="40">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="46">
         <v>60</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="33"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -6407,6 +6401,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="C12:G12"/>
@@ -6414,12 +6414,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B2:W7"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6436,150 +6430,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -6588,13 +6582,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
@@ -6606,13 +6600,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -6622,30 +6616,30 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="40">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="46">
         <v>40</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="48">
         <v>40</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="32"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -6664,13 +6658,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -6680,13 +6674,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -6696,30 +6690,30 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="40">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="46">
         <v>60</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="48">
         <v>25</v>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="33"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -6748,6 +6742,364 @@
         <v>38</v>
       </c>
     </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:W85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="18">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="46">
+        <v>40</v>
+      </c>
+      <c r="I14" s="48">
+        <v>40</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="18">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="18">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5">
+        <v>40</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="18">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="46">
+        <v>60</v>
+      </c>
+      <c r="I19" s="48">
+        <v>25</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUM(H13:H20)</f>
+        <v>260</v>
+      </c>
+      <c r="I21" s="7">
+        <f>SUM(I13:I20)</f>
+        <v>130</v>
+      </c>
+      <c r="J21" s="8">
+        <f>SUM(J13:J20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="J19:J20"/>
@@ -6769,519 +7121,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:W85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="18">
-        <v>40</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="40">
-        <v>40</v>
-      </c>
-      <c r="I14" s="42">
-        <v>40</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="18">
-        <v>40</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="18">
-        <v>40</v>
-      </c>
-      <c r="I17" s="5">
-        <v>40</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="18">
-        <v>40</v>
-      </c>
-      <c r="I18" s="5">
-        <v>25</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="40">
-        <v>60</v>
-      </c>
-      <c r="I19" s="42">
-        <v>25</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="6">
-        <f>SUM(H13:H20)</f>
-        <v>260</v>
-      </c>
-      <c r="I21" s="7">
-        <f>SUM(I13:I20)</f>
-        <v>130</v>
-      </c>
-      <c r="J21" s="8">
-        <f>SUM(J13:J20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:W7"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="B2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -7297,137 +7291,149 @@
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
       <c r="G12" s="61"/>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="J12" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C13" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="64"/>
-      <c r="H13" s="56">
+      <c r="H13" s="31">
         <v>30</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="27">
+        <v>30</v>
+      </c>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="40">
+      <c r="C14" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="46">
         <v>45</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="48">
+        <v>30</v>
+      </c>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="32"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="66"/>
+        <v>43</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="20">
         <v>65</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <v>60</v>
+      </c>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="66"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="20">
         <v>20</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <v>20</v>
+      </c>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="C19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="20">
         <v>40</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <v>20</v>
+      </c>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="57">
+      <c r="C20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="32">
         <v>65</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="I20" s="29">
+        <v>60</v>
+      </c>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="22">
         <f>SUM(H13:H20)</f>
         <v>265</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="22">
         <f>SUM(I13:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="70">
+        <v>220</v>
+      </c>
+      <c r="J21" s="33">
         <f>SUM(J13:J20)</f>
         <v>0</v>
       </c>
@@ -7472,150 +7478,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7636,150 +7642,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7800,150 +7806,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7964,150 +7970,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -698,12 +698,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -712,6 +706,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -742,24 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1022,11 +1022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2051985424"/>
-        <c:axId val="-2051987056"/>
+        <c:axId val="1217284912"/>
+        <c:axId val="1217283280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051985424"/>
+        <c:axId val="1217284912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051987056"/>
+        <c:crossAx val="1217283280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +1076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051987056"/>
+        <c:axId val="1217283280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051985424"/>
+        <c:crossAx val="1217284912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,11 +1397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2051988144"/>
-        <c:axId val="-2051986512"/>
+        <c:axId val="1217280016"/>
+        <c:axId val="1217291440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051988144"/>
+        <c:axId val="1217280016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051986512"/>
+        <c:crossAx val="1217291440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051986512"/>
+        <c:axId val="1217291440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051988144"/>
+        <c:crossAx val="1217280016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1772,11 +1772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-704290448"/>
-        <c:axId val="-704277936"/>
+        <c:axId val="1217277296"/>
+        <c:axId val="1217280560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-704290448"/>
+        <c:axId val="1217277296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704277936"/>
+        <c:crossAx val="1217280560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-704277936"/>
+        <c:axId val="1217280560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704290448"/>
+        <c:crossAx val="1217277296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2149,11 +2149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2044553616"/>
-        <c:axId val="-2044551440"/>
+        <c:axId val="1217281648"/>
+        <c:axId val="1217281104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2044553616"/>
+        <c:axId val="1217281648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044551440"/>
+        <c:crossAx val="1217281104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044551440"/>
+        <c:axId val="1217281104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044553616"/>
+        <c:crossAx val="1217281648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6251,13 +6251,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
@@ -6269,13 +6269,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="12">
         <v>40</v>
       </c>
@@ -6283,28 +6283,28 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="46">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="52">
         <v>40</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -6321,13 +6321,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="12">
         <v>40</v>
       </c>
@@ -6335,13 +6335,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="12">
         <v>40</v>
       </c>
@@ -6349,28 +6349,28 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="46">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="52">
         <v>60</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="35"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="36"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -6401,12 +6401,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:W7"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="C12:G12"/>
@@ -6414,6 +6408,12 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B2:W7"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6582,13 +6582,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
@@ -6600,13 +6600,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -6616,30 +6616,30 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="46">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="52">
         <v>40</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="54">
         <v>40</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -6658,13 +6658,13 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -6674,13 +6674,13 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -6690,30 +6690,30 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="46">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="52">
         <v>60</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="54">
         <v>25</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="36"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -6744,6 +6744,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -6751,12 +6757,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6926,13 +6926,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
@@ -6944,13 +6944,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="18">
         <v>40</v>
       </c>
@@ -6962,32 +6962,32 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="46">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="52">
         <v>40</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="54">
         <v>40</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -7008,13 +7008,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="18">
         <v>40</v>
       </c>
@@ -7026,13 +7026,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="18">
         <v>40</v>
       </c>
@@ -7044,32 +7044,32 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="46">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="52">
         <v>60</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="54">
         <v>25</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="36"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -7102,12 +7102,6 @@
     <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -7115,6 +7109,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7125,8 +7125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7315,7 +7315,9 @@
       <c r="I13" s="27">
         <v>30</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C14" s="68" t="s">
@@ -7325,13 +7327,15 @@
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="70"/>
-      <c r="H14" s="46">
+      <c r="H14" s="52">
         <v>45</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="54">
         <v>30</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C15" s="68"/>
@@ -7339,9 +7343,9 @@
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
       <c r="G15" s="70"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="35"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="68"/>
@@ -7349,9 +7353,9 @@
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
       <c r="G16" s="70"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="35"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="65" t="s">
@@ -7367,7 +7371,9 @@
       <c r="I17" s="21">
         <v>60</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="65" t="s">
@@ -7383,23 +7389,27 @@
       <c r="I18" s="21">
         <v>20</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="20">
         <v>40</v>
       </c>
       <c r="I19" s="21">
         <v>20</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="56" t="s">
@@ -7415,7 +7425,9 @@
       <c r="I20" s="29">
         <v>60</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="23"/>

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -687,6 +687,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,6 +708,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -714,6 +744,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,36 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -795,38 +807,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,11 +1058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-219360272"/>
-        <c:axId val="-219363536"/>
+        <c:axId val="1372928560"/>
+        <c:axId val="1565347056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-219360272"/>
+        <c:axId val="1372928560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-219363536"/>
+        <c:crossAx val="1565347056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +1112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-219363536"/>
+        <c:axId val="1565347056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-219360272"/>
+        <c:crossAx val="1372928560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,11 +1435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-219370608"/>
-        <c:axId val="-219359728"/>
+        <c:axId val="1565346512"/>
+        <c:axId val="1565349776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-219370608"/>
+        <c:axId val="1565346512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-219359728"/>
+        <c:crossAx val="1565349776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-219359728"/>
+        <c:axId val="1565349776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-219370608"/>
+        <c:crossAx val="1565346512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,7 +1792,7 @@
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1812,11 +1812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-412880192"/>
-        <c:axId val="-412872032"/>
+        <c:axId val="1565343248"/>
+        <c:axId val="1565343792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-412880192"/>
+        <c:axId val="1565343248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-412872032"/>
+        <c:crossAx val="1565343792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-412872032"/>
+        <c:axId val="1565343792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-412880192"/>
+        <c:crossAx val="1565343248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3989,150 +3989,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -4202,155 +4202,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -4359,13 +4361,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -4377,13 +4379,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -4395,32 +4397,32 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="45">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="52">
         <v>40</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="54">
         <v>40</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -4441,13 +4443,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -4459,13 +4461,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -4477,32 +4479,32 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="45">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="52">
         <v>60</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="54">
         <v>25</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -4535,12 +4537,6 @@
     <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -4548,6 +4544,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4558,155 +4560,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -4715,13 +4719,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="19" t="s">
         <v>26</v>
       </c>
@@ -4733,13 +4737,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="26">
         <v>30</v>
       </c>
@@ -4751,51 +4755,51 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="45">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="52">
         <v>45</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="54">
         <v>30</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="15">
         <v>65</v>
       </c>
@@ -4807,13 +4811,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="15">
         <v>20</v>
       </c>
@@ -4825,13 +4829,13 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -4843,13 +4847,13 @@
       </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="27">
         <v>65</v>
       </c>
@@ -4914,155 +4918,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -5071,13 +5077,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="19" t="s">
         <v>35</v>
       </c>
@@ -5089,93 +5095,103 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="74">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="34">
         <v>60</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="22">
+        <v>35</v>
+      </c>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:23" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="75">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="83">
         <v>25</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="54">
+        <v>25</v>
+      </c>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="76">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="35">
         <v>40</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>25</v>
+      </c>
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="76">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="35">
         <v>50</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>15</v>
+      </c>
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="77">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="36">
         <v>70</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="24">
+        <v>40</v>
+      </c>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5192,9 +5208,9 @@
       </c>
       <c r="I20" s="17">
         <f>SUM(I13:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="73">
+        <v>140</v>
+      </c>
+      <c r="J20" s="33">
         <f>SUM(J13:J19)</f>
         <v>0</v>
       </c>
@@ -5231,157 +5247,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5402,150 +5418,150 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -702,6 +702,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,24 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -744,26 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -891,7 +891,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -993,7 +992,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1058,11 +1056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1372928560"/>
-        <c:axId val="1565347056"/>
+        <c:axId val="-1464790592"/>
+        <c:axId val="-1464786240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1372928560"/>
+        <c:axId val="-1464790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565347056"/>
+        <c:crossAx val="-1464786240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1565347056"/>
+        <c:axId val="-1464786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1372928560"/>
+        <c:crossAx val="-1464790592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,11 +1433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1565346512"/>
-        <c:axId val="1565349776"/>
+        <c:axId val="-1267274624"/>
+        <c:axId val="-1267278432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1565346512"/>
+        <c:axId val="-1267274624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565349776"/>
+        <c:crossAx val="-1267278432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1565349776"/>
+        <c:axId val="-1267278432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565346512"/>
+        <c:crossAx val="-1267274624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,11 +1810,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1565343248"/>
-        <c:axId val="1565343792"/>
+        <c:axId val="-1267278976"/>
+        <c:axId val="-1267283872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1565343248"/>
+        <c:axId val="-1267278976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565343792"/>
+        <c:crossAx val="-1267283872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1565343792"/>
+        <c:axId val="-1267283872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565343248"/>
+        <c:crossAx val="-1267278976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4361,13 +4359,13 @@
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -4379,13 +4377,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -4397,32 +4395,32 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="52">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47">
         <v>40</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="48">
         <v>40</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="38"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -4443,13 +4441,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -4461,13 +4459,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -4479,32 +4477,32 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="52">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47">
         <v>60</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="48">
         <v>25</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="39"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
@@ -4537,6 +4535,12 @@
     <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -4544,12 +4548,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4762,13 +4760,13 @@
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="52">
+      <c r="H14" s="47">
         <v>45</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="48">
         <v>30</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4778,9 +4776,9 @@
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="38"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C16" s="71"/>
@@ -4788,9 +4786,9 @@
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="38"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="68" t="s">
@@ -4829,13 +4827,13 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -4918,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5108,7 +5106,9 @@
       <c r="I13" s="22">
         <v>35</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:23" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="71" t="s">
@@ -5121,10 +5121,12 @@
       <c r="H14" s="83">
         <v>25</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="48">
         <v>25</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="71"/>
@@ -5133,8 +5135,8 @@
       <c r="F15" s="72"/>
       <c r="G15" s="73"/>
       <c r="H15" s="83"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="38"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="71"/>
@@ -5143,8 +5145,8 @@
       <c r="F16" s="72"/>
       <c r="G16" s="73"/>
       <c r="H16" s="83"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="74" t="s">
@@ -5160,7 +5162,9 @@
       <c r="I17" s="30">
         <v>25</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="71" t="s">
@@ -5176,7 +5180,9 @@
       <c r="I18" s="30">
         <v>15</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="77" t="s">
@@ -5192,7 +5198,9 @@
       <c r="I19" s="24">
         <v>40</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="18"/>

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Scrummaster</t>
   </si>
@@ -158,6 +158,27 @@
   <si>
     <t>Burndown Chart Sprint 4</t>
   </si>
+  <si>
+    <t>Penjelasan secara Umum : Aturan Permainan Dota2</t>
+  </si>
+  <si>
+    <t>Role : Support</t>
+  </si>
+  <si>
+    <t>Role : Durable</t>
+  </si>
+  <si>
+    <t>Role : Nuker</t>
+  </si>
+  <si>
+    <t>Warding : Jenis-Jenis Strategi Warding</t>
+  </si>
+  <si>
+    <t>Hero Guide Sniper : Best "Friends"</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -595,11 +616,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -699,9 +757,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,60 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -827,6 +894,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,6 +982,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -922,7 +1014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -979,7 +1071,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -992,6 +1084,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1056,11 +1149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1464790592"/>
-        <c:axId val="-1464786240"/>
+        <c:axId val="262430464"/>
+        <c:axId val="262431640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1464790592"/>
+        <c:axId val="262430464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,10 +1192,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1464786240"/>
+        <c:crossAx val="262431640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1464786240"/>
+        <c:axId val="262431640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,10 +1250,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1464790592"/>
+        <c:crossAx val="262430464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,7 +1302,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1298,7 +1391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1355,7 +1448,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1433,11 +1526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1267274624"/>
-        <c:axId val="-1267278432"/>
+        <c:axId val="263173928"/>
+        <c:axId val="263174320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1267274624"/>
+        <c:axId val="263173928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,10 +1569,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1267278432"/>
+        <c:crossAx val="263174320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1267278432"/>
+        <c:axId val="263174320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,10 +1627,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1267274624"/>
+        <c:crossAx val="263173928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,7 +1679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1675,7 +1768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1732,7 +1825,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1810,11 +1903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1267278976"/>
-        <c:axId val="-1267283872"/>
+        <c:axId val="263171184"/>
+        <c:axId val="263171576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1267278976"/>
+        <c:axId val="263171184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,10 +1946,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1267283872"/>
+        <c:crossAx val="263171576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1267283872"/>
+        <c:axId val="263171576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,10 +2004,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1267278976"/>
+        <c:crossAx val="263171184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,7 +2056,384 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 4'!$J$12:$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$J$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="301104816"/>
+        <c:axId val="301098152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="301104816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301098152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301098152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301104816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2094,6 +2564,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3087,6 +3597,502 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3669,6 +4675,43 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
       <xdr:row>38</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>77320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3984,155 +5027,155 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4143,7 +5186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +5197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4165,7 +5208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -4176,7 +5219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -4200,172 +5243,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="38" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -4376,14 +5419,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="41" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -4394,35 +5437,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="44" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55">
         <v>40</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="57">
         <v>40</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
@@ -4440,14 +5483,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="51" t="s">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -4458,14 +5501,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="41" t="s">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -4476,35 +5519,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="44" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55">
         <v>60</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="57">
         <v>25</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="58"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
@@ -4521,26 +5564,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -4548,6 +5585,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4559,171 +5602,171 @@
   <dimension ref="B2:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="62" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="19" t="s">
         <v>26</v>
       </c>
@@ -4734,14 +5777,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="65" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="26">
         <v>30</v>
       </c>
@@ -4752,52 +5795,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="47">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="55">
         <v>45</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="57">
         <v>30</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="68" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="15">
         <v>65</v>
       </c>
@@ -4808,14 +5851,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="68" t="s">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="15">
         <v>20</v>
       </c>
@@ -4826,14 +5869,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="41" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -4844,14 +5887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="59" t="s">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="27">
         <v>65</v>
       </c>
@@ -4862,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4883,12 +5926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
@@ -4916,172 +5959,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="62" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="19" t="s">
         <v>35</v>
       </c>
@@ -5092,14 +6135,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="80" t="s">
+    <row r="13" spans="2:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="34">
         <v>60</v>
       </c>
@@ -5110,52 +6153,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+    <row r="14" spans="2:23" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="83">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="86">
         <v>25</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="57">
         <v>25</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="2:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="74" t="s">
+    <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="35">
         <v>40</v>
       </c>
@@ -5166,14 +6209,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="71" t="s">
+    <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="35">
         <v>50</v>
       </c>
@@ -5184,14 +6227,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="77" t="s">
+    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="36">
         <v>70</v>
       </c>
@@ -5202,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -5223,12 +6266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -5253,165 +6296,335 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W7"/>
+  <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="34">
+        <v>60</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="86">
+        <v>0</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="39">
+        <v>40</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="39">
+        <v>40</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="39">
+        <v>55</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="36">
+        <v>50</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="17">
+        <f>SUM(J13:J20)</f>
+        <v>245</v>
+      </c>
+      <c r="K21" s="17">
+        <f>SUM(K13:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <f>SUM(L13:L20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B2:W7"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5423,153 +6636,153 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -769,6 +769,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,24 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -811,26 +826,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -895,6 +895,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -903,21 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,11 +1149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="262430464"/>
-        <c:axId val="262431640"/>
+        <c:axId val="258477528"/>
+        <c:axId val="258477920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262430464"/>
+        <c:axId val="258477528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1195,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262431640"/>
+        <c:crossAx val="258477920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1203,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262431640"/>
+        <c:axId val="258477920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1253,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262430464"/>
+        <c:crossAx val="258477528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,11 +1526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263173928"/>
-        <c:axId val="263174320"/>
+        <c:axId val="258471256"/>
+        <c:axId val="258475176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263173928"/>
+        <c:axId val="258471256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1572,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263174320"/>
+        <c:crossAx val="258475176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1580,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263174320"/>
+        <c:axId val="258475176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1630,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263173928"/>
+        <c:crossAx val="258471256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,11 +1903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263171184"/>
-        <c:axId val="263171576"/>
+        <c:axId val="258471648"/>
+        <c:axId val="258475568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263171184"/>
+        <c:axId val="258471648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263171576"/>
+        <c:crossAx val="258475568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263171576"/>
+        <c:axId val="258475568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2007,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263171184"/>
+        <c:crossAx val="258471648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2260,7 +2260,7 @@
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2280,11 +2280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="301104816"/>
-        <c:axId val="301098152"/>
+        <c:axId val="261144928"/>
+        <c:axId val="261150416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301104816"/>
+        <c:axId val="261144928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2326,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301098152"/>
+        <c:crossAx val="261150416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2334,7 +2334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301098152"/>
+        <c:axId val="261150416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2384,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301104816"/>
+        <c:crossAx val="261144928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5402,13 +5402,13 @@
     </row>
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -5420,13 +5420,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -5438,32 +5438,32 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50">
         <v>40</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="51">
         <v>40</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -5484,13 +5484,13 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -5502,13 +5502,13 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -5520,32 +5520,32 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50">
         <v>60</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="51">
         <v>25</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="42"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -5578,6 +5578,12 @@
     <row r="57" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -5585,12 +5591,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5803,13 +5803,13 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="76"/>
-      <c r="H14" s="55">
+      <c r="H14" s="50">
         <v>45</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="51">
         <v>30</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5819,9 +5819,9 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="76"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="74"/>
@@ -5829,9 +5829,9 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="76"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="41"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="71" t="s">
@@ -5870,13 +5870,13 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -6164,10 +6164,10 @@
       <c r="H14" s="86">
         <v>25</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="51">
         <v>25</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="52">
         <v>0</v>
       </c>
     </row>
@@ -6178,8 +6178,8 @@
       <c r="F15" s="75"/>
       <c r="G15" s="76"/>
       <c r="H15" s="86"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="2:23" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="74"/>
@@ -6188,8 +6188,8 @@
       <c r="F16" s="75"/>
       <c r="G16" s="76"/>
       <c r="H16" s="86"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="77" t="s">
@@ -6298,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,7 +6485,9 @@
       <c r="J13" s="34">
         <v>60</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="34">
+        <v>30</v>
+      </c>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
@@ -6499,10 +6501,12 @@
       <c r="J14" s="86">
         <v>0</v>
       </c>
-      <c r="K14" s="86"/>
+      <c r="K14" s="86">
+        <v>0</v>
+      </c>
       <c r="L14" s="86"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="74"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
@@ -6512,7 +6516,7 @@
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="74"/>
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
@@ -6526,56 +6530,64 @@
       <c r="E17" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="39">
         <v>40</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="39">
+        <v>0</v>
+      </c>
       <c r="L17" s="39"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="39">
         <v>40</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="39">
+        <v>40</v>
+      </c>
       <c r="L18" s="39"/>
     </row>
     <row r="19" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
       <c r="J19" s="39">
         <v>55</v>
       </c>
-      <c r="K19" s="39"/>
+      <c r="K19" s="39">
+        <v>20</v>
+      </c>
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="36">
         <v>50</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="36">
+        <v>15</v>
+      </c>
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6592,7 +6604,7 @@
       </c>
       <c r="K21" s="17">
         <f>SUM(K13:K20)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L21" s="33">
         <f>SUM(L13:L20)</f>

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -14,7 +14,7 @@
     <sheet name="Sprint 4" sheetId="17" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="32" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -183,8 +183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +769,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,60 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -938,17 +938,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -982,8 +972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -991,39 +979,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1071,17 +1031,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1137,31 +1091,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="258477528"/>
-        <c:axId val="258477920"/>
+        <c:marker val="1"/>
+        <c:axId val="84971904"/>
+        <c:axId val="84973440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258477528"/>
+        <c:axId val="84971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1192,22 +1137,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258477920"/>
+        <c:crossAx val="84973440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258477920"/>
+        <c:axId val="84973440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1225,7 +1168,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1250,10 +1192,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258477528"/>
+        <c:crossAx val="84971904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,7 +1209,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1302,12 +1243,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1315,17 +1256,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1359,8 +1290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1368,39 +1297,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1448,17 +1349,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1514,31 +1409,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="258471256"/>
-        <c:axId val="258475176"/>
+        <c:marker val="1"/>
+        <c:axId val="84989824"/>
+        <c:axId val="84991360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258471256"/>
+        <c:axId val="84989824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1569,22 +1455,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258475176"/>
+        <c:crossAx val="84991360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258475176"/>
+        <c:axId val="84991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1602,7 +1486,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1627,10 +1510,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258471256"/>
+        <c:crossAx val="84989824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1527,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1679,12 +1561,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1692,17 +1574,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1737,7 +1609,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1745,39 +1616,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1825,17 +1668,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1891,31 +1728,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="258471648"/>
-        <c:axId val="258475568"/>
+        <c:marker val="1"/>
+        <c:axId val="85269888"/>
+        <c:axId val="85304448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258471648"/>
+        <c:axId val="85269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1946,22 +1774,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258475568"/>
+        <c:crossAx val="85304448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258475568"/>
+        <c:axId val="85304448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1979,7 +1805,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2004,10 +1829,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258471648"/>
+        <c:crossAx val="85269888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2021,7 +1846,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2056,12 +1880,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2069,17 +1893,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2114,7 +1928,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2122,39 +1935,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2202,17 +1987,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2268,31 +2047,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="261144928"/>
-        <c:axId val="261150416"/>
+        <c:marker val="1"/>
+        <c:axId val="87008384"/>
+        <c:axId val="87009920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="261144928"/>
+        <c:axId val="87008384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2323,22 +2093,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261150416"/>
+        <c:crossAx val="87009920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261150416"/>
+        <c:axId val="87009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2356,7 +2124,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2381,10 +2148,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261144928"/>
+        <c:crossAx val="87008384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,7 +2165,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2433,12 +2199,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4779,7 +4545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4811,10 +4577,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4846,7 +4611,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5022,14 +4786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
@@ -5055,7 +4819,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -5079,7 +4843,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -5103,7 +4867,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -5127,7 +4891,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -5151,7 +4915,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -5175,7 +4939,7 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5186,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -5197,7 +4961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5208,7 +4972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5219,7 +4983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -5240,16 +5004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" s="40" t="s">
         <v>42</v>
       </c>
@@ -5275,7 +5039,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -5299,7 +5063,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -5323,7 +5087,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -5347,7 +5111,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -5371,7 +5135,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -5395,20 +5159,20 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="41" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:23">
+      <c r="C12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -5419,14 +5183,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="44" t="s">
+    <row r="13" spans="2:23">
+      <c r="C13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -5437,35 +5201,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="47" t="s">
+    <row r="14" spans="2:23">
+      <c r="C14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55">
         <v>40</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="57">
         <v>40</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
@@ -5483,14 +5247,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="54" t="s">
+    <row r="17" spans="3:10">
+      <c r="C17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -5501,14 +5265,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="44" t="s">
+    <row r="18" spans="3:10">
+      <c r="C18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -5519,35 +5283,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="47" t="s">
+    <row r="19" spans="3:10">
+      <c r="C19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55">
         <v>60</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="57">
         <v>25</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1">
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5564,26 +5328,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="29.45" customHeight="1"/>
+    <row r="57" ht="14.45" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B2:W7"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -5591,6 +5349,12 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5598,16 +5362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="14.45" customHeight="1">
       <c r="B2" s="40" t="s">
         <v>43</v>
       </c>
@@ -5633,7 +5397,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="14.45" customHeight="1">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -5657,7 +5421,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="14.45" customHeight="1">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -5681,7 +5445,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="14.45" customHeight="1">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -5705,7 +5469,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="14.45" customHeight="1">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -5729,7 +5493,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="14.45" customHeight="1">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -5753,13 +5517,13 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
@@ -5777,7 +5541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23">
       <c r="C13" s="68" t="s">
         <v>29</v>
       </c>
@@ -5795,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23">
       <c r="C14" s="74" t="s">
         <v>34</v>
       </c>
@@ -5803,37 +5567,37 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="76"/>
-      <c r="H14" s="50">
+      <c r="H14" s="55">
         <v>45</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="57">
         <v>30</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23">
       <c r="C15" s="74"/>
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="76"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H15" s="55"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23">
       <c r="C16" s="74"/>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="76"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="55"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
@@ -5851,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10">
       <c r="C18" s="71" t="s">
         <v>31</v>
       </c>
@@ -5869,14 +5633,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="44" t="s">
+    <row r="19" spans="3:10">
+      <c r="C19" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -5887,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1">
       <c r="C20" s="62" t="s">
         <v>32</v>
       </c>
@@ -5905,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" ht="15.75" thickBot="1">
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -5926,12 +5690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5956,16 +5720,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" s="40" t="s">
         <v>41</v>
       </c>
@@ -5991,7 +5755,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -6015,7 +5779,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6039,7 +5803,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -6063,7 +5827,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -6087,7 +5851,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -6111,13 +5875,13 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
@@ -6135,7 +5899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="30.6" customHeight="1">
       <c r="C13" s="83" t="s">
         <v>36</v>
       </c>
@@ -6153,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="4.1500000000000004" customHeight="1">
       <c r="C14" s="74" t="s">
         <v>37</v>
       </c>
@@ -6164,34 +5928,34 @@
       <c r="H14" s="86">
         <v>25</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="57">
         <v>25</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="6" customHeight="1">
       <c r="C15" s="74"/>
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="76"/>
       <c r="H15" s="86"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="2:23" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="57"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:23" ht="5.45" customHeight="1">
       <c r="C16" s="74"/>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="76"/>
       <c r="H16" s="86"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="57"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="3:10" ht="18" customHeight="1">
       <c r="C17" s="77" t="s">
         <v>38</v>
       </c>
@@ -6209,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="30" customHeight="1">
       <c r="C18" s="74" t="s">
         <v>39</v>
       </c>
@@ -6227,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1">
       <c r="C19" s="80" t="s">
         <v>40</v>
       </c>
@@ -6245,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -6266,12 +6030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -6295,16 +6059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
@@ -6330,7 +6094,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -6354,7 +6118,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6378,7 +6142,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -6402,7 +6166,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -6426,7 +6190,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -6450,13 +6214,13 @@
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1">
       <c r="E12" s="65" t="s">
         <v>16</v>
       </c>
@@ -6474,7 +6238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23">
       <c r="E13" s="83" t="s">
         <v>46</v>
       </c>
@@ -6488,9 +6252,11 @@
       <c r="K13" s="34">
         <v>30</v>
       </c>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L13" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
       <c r="E14" s="74" t="s">
         <v>47</v>
       </c>
@@ -6504,9 +6270,11 @@
       <c r="K14" s="86">
         <v>0</v>
       </c>
-      <c r="L14" s="86"/>
-    </row>
-    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="2.25" customHeight="1">
       <c r="E15" s="74"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
@@ -6516,7 +6284,7 @@
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
     </row>
-    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1">
       <c r="E16" s="74"/>
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
@@ -6526,7 +6294,7 @@
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12">
       <c r="E17" s="77" t="s">
         <v>48</v>
       </c>
@@ -6540,9 +6308,11 @@
       <c r="K17" s="39">
         <v>0</v>
       </c>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
       <c r="E18" s="77" t="s">
         <v>49</v>
       </c>
@@ -6556,9 +6326,11 @@
       <c r="K18" s="39">
         <v>40</v>
       </c>
-      <c r="L18" s="39"/>
-    </row>
-    <row r="19" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" ht="15" customHeight="1">
       <c r="E19" s="89" t="s">
         <v>50</v>
       </c>
@@ -6572,9 +6344,11 @@
       <c r="K19" s="39">
         <v>20</v>
       </c>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="E20" s="92" t="s">
         <v>51</v>
       </c>
@@ -6588,9 +6362,11 @@
       <c r="K20" s="36">
         <v>15</v>
       </c>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" ht="15.75" thickBot="1">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -6611,12 +6387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12">
       <c r="E24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5">
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
@@ -6641,16 +6417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:W7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
@@ -6676,7 +6452,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23">
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -6700,7 +6476,7 @@
       <c r="V3" s="40"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6724,7 +6500,7 @@
       <c r="V4" s="40"/>
       <c r="W4" s="40"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -6748,7 +6524,7 @@
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -6772,7 +6548,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>

--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sprint 2" sheetId="10" r:id="rId3"/>
     <sheet name="Sprint 3" sheetId="14" r:id="rId4"/>
     <sheet name="Sprint 4" sheetId="17" r:id="rId5"/>
-    <sheet name="Sprint 5" sheetId="32" r:id="rId6"/>
+    <sheet name="Sprint 5" sheetId="33" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Scrummaster</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Burndown Chart Sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Burndown Chart Sprint 5 </t>
-  </si>
-  <si>
     <t>Burndown Chart Sprint 4</t>
   </si>
   <si>
@@ -179,12 +176,30 @@
   <si>
     <t>Jumat</t>
   </si>
+  <si>
+    <t>Burndown Chart Sprint 5</t>
+  </si>
+  <si>
+    <t>Role : Pusher</t>
+  </si>
+  <si>
+    <t>Role : Escape</t>
+  </si>
+  <si>
+    <t>Warding : Lokasi Ideal untuk Warding</t>
+  </si>
+  <si>
+    <t>Hero Guide Sniper : Worst "Enemies"</t>
+  </si>
+  <si>
+    <t>Penjelasan secara Umum : Manfaat Bermain Dota2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -653,11 +668,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -766,6 +811,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,6 +978,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +1010,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -972,6 +1054,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -979,11 +1062,39 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1035,10 +1146,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1091,22 +1207,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="84971904"/>
-        <c:axId val="84973440"/>
+        <c:smooth val="0"/>
+        <c:axId val="148557688"/>
+        <c:axId val="148558080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84971904"/>
+        <c:axId val="148557688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1140,17 +1264,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84973440"/>
+        <c:crossAx val="148558080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84973440"/>
+        <c:axId val="148558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1168,6 +1294,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1195,7 +1322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84971904"/>
+        <c:crossAx val="148557688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,6 +1336,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1256,7 +1384,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1290,6 +1428,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1297,11 +1436,39 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1353,10 +1520,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1409,22 +1581,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="84989824"/>
-        <c:axId val="84991360"/>
+        <c:smooth val="0"/>
+        <c:axId val="148558864"/>
+        <c:axId val="146468624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84989824"/>
+        <c:axId val="148558864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1458,17 +1638,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84991360"/>
+        <c:crossAx val="146468624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84991360"/>
+        <c:axId val="146468624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1486,6 +1668,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1513,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84989824"/>
+        <c:crossAx val="148558864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,6 +1710,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1574,7 +1758,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1608,7 +1802,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1616,11 +1810,39 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1672,10 +1894,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1728,22 +1955,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="85269888"/>
-        <c:axId val="85304448"/>
+        <c:smooth val="0"/>
+        <c:axId val="146469408"/>
+        <c:axId val="146471368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85269888"/>
+        <c:axId val="146469408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1777,17 +2012,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85304448"/>
+        <c:crossAx val="146471368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85304448"/>
+        <c:axId val="146471368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1805,6 +2042,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1832,7 +2070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85269888"/>
+        <c:crossAx val="146469408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1846,6 +2084,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1893,7 +2132,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1927,7 +2176,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1935,11 +2184,39 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1991,10 +2268,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2047,22 +2329,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="87008384"/>
-        <c:axId val="87009920"/>
+        <c:smooth val="0"/>
+        <c:axId val="146549976"/>
+        <c:axId val="186269696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87008384"/>
+        <c:axId val="146549976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2096,17 +2386,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87009920"/>
+        <c:crossAx val="186269696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87009920"/>
+        <c:axId val="186269696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2124,6 +2416,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2151,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87008384"/>
+        <c:crossAx val="146549976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,6 +2458,377 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 5'!$J$12:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5'!$J$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="186272048"/>
+        <c:axId val="186272440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186272048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186272440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186272440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186272048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2370,6 +3034,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3859,6 +4563,502 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4502,6 +5702,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4545,7 +5782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4577,9 +5814,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4611,6 +5849,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4786,160 +6025,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +6189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +6200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +6211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +6222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -5004,175 +6243,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:23">
-      <c r="C12" s="59" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
@@ -5183,14 +6422,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
-      <c r="C13" s="46" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="13">
         <v>40</v>
       </c>
@@ -5201,35 +6440,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
-      <c r="C14" s="49" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="60">
         <v>40</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="62">
         <v>40</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
@@ -5247,14 +6486,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="43" t="s">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="13">
         <v>40</v>
       </c>
@@ -5265,14 +6504,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="46" t="s">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="13">
         <v>40</v>
       </c>
@@ -5283,35 +6522,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="49" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="60">
         <v>60</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="62">
         <v>25</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5328,18 +6567,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" ht="29.45" customHeight="1"/>
-    <row r="57" ht="14.45" customHeight="1"/>
+    <row r="56" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B2:W7"/>
@@ -5362,175 +6601,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23" ht="14.45" customHeight="1">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1">
-      <c r="C12" s="65" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="19" t="s">
         <v>26</v>
       </c>
@@ -5541,14 +6780,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
-      <c r="C13" s="68" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="26">
         <v>30</v>
       </c>
@@ -5559,52 +6798,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
-      <c r="C14" s="74" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="55">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="60">
         <v>45</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="62">
         <v>30</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="71" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="15">
         <v>65</v>
       </c>
@@ -5615,14 +6854,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="71" t="s">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="15">
         <v>20</v>
       </c>
@@ -5633,14 +6872,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="46" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="15">
         <v>40</v>
       </c>
@@ -5651,14 +6890,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C20" s="62" t="s">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="27">
         <v>65</v>
       </c>
@@ -5669,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1">
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -5690,12 +6929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5720,175 +6959,175 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1">
-      <c r="C12" s="65" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="19" t="s">
         <v>35</v>
       </c>
@@ -5899,14 +7138,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="30.6" customHeight="1">
-      <c r="C13" s="83" t="s">
+    <row r="13" spans="2:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="34">
         <v>60</v>
       </c>
@@ -5917,52 +7156,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="4.1500000000000004" customHeight="1">
-      <c r="C14" s="74" t="s">
+    <row r="14" spans="2:23" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="86">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="91">
         <v>25</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="62">
         <v>25</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="6" customHeight="1">
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="2:23" ht="5.45" customHeight="1">
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="3:10" ht="18" customHeight="1">
-      <c r="C17" s="77" t="s">
+    <row r="15" spans="2:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:23" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="35">
         <v>40</v>
       </c>
@@ -5973,14 +7212,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="30" customHeight="1">
-      <c r="C18" s="74" t="s">
+    <row r="18" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="35">
         <v>50</v>
       </c>
@@ -5991,14 +7230,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1">
-      <c r="C19" s="80" t="s">
+    <row r="19" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="36">
         <v>70</v>
       </c>
@@ -6009,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15.75" thickBot="1">
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -6030,12 +7269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -6059,175 +7298,173 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="10" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1">
-      <c r="E12" s="65" t="s">
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="19" t="s">
         <v>19</v>
       </c>
@@ -6235,17 +7472,17 @@
         <v>26</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="E13" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="34">
         <v>60</v>
       </c>
@@ -6256,52 +7493,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
-      <c r="E14" s="74" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="91">
+        <v>0</v>
+      </c>
+      <c r="K14" s="91">
+        <v>0</v>
+      </c>
+      <c r="L14" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="86">
-        <v>0</v>
-      </c>
-      <c r="K14" s="86">
-        <v>0</v>
-      </c>
-      <c r="L14" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" ht="2.25" customHeight="1">
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-    </row>
-    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1">
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-    </row>
-    <row r="17" spans="5:12">
-      <c r="E17" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="39">
         <v>40</v>
       </c>
@@ -6312,14 +7549,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:12">
-      <c r="E18" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="39">
         <v>40</v>
       </c>
@@ -6330,14 +7567,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:12" ht="15" customHeight="1">
-      <c r="E19" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
+    <row r="19" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="39">
         <v>55</v>
       </c>
@@ -6348,14 +7585,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E20" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
+    <row r="20" spans="5:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="36">
         <v>50</v>
       </c>
@@ -6366,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:12" ht="15.75" thickBot="1">
+    <row r="21" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -6387,12 +7624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="5:5">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
@@ -6417,165 +7654,306 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-    </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="34">
+        <v>35</v>
+      </c>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="91">
+        <v>0</v>
+      </c>
+      <c r="K14" s="103"/>
+    </row>
+    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="103"/>
+    </row>
+    <row r="16" spans="2:23" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="103"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="42">
+        <v>40</v>
+      </c>
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="42">
+        <v>45</v>
+      </c>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="5:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="42">
+        <v>30</v>
+      </c>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="5:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="17">
+        <f>SUM(J13:J19)</f>
+        <v>150</v>
+      </c>
+      <c r="K20" s="33">
+        <f>SUM(K13:K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B2:W7"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BURNDOWN CHART.xlsx
+++ b/BURNDOWN CHART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="20" r:id="rId1"/>
@@ -1054,6 +1054,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1155,6 +1156,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1218,11 +1220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="148557688"/>
-        <c:axId val="148558080"/>
+        <c:axId val="186060376"/>
+        <c:axId val="186061160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148557688"/>
+        <c:axId val="186060376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148558080"/>
+        <c:crossAx val="186061160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148558080"/>
+        <c:axId val="186061160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148557688"/>
+        <c:crossAx val="186060376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,6 +1430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1529,6 +1532,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1592,11 +1596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="148558864"/>
-        <c:axId val="146468624"/>
+        <c:axId val="186060768"/>
+        <c:axId val="186061944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148558864"/>
+        <c:axId val="186060768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146468624"/>
+        <c:crossAx val="186061944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146468624"/>
+        <c:axId val="186061944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148558864"/>
+        <c:crossAx val="186060768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,6 +1806,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1903,6 +1908,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1966,11 +1972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="146469408"/>
-        <c:axId val="146471368"/>
+        <c:axId val="186059984"/>
+        <c:axId val="186059200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146469408"/>
+        <c:axId val="186059984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146471368"/>
+        <c:crossAx val="186059200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,7 +2026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146471368"/>
+        <c:axId val="186059200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146469408"/>
+        <c:crossAx val="186059984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2176,6 +2182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2277,6 +2284,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2340,11 +2348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="146549976"/>
-        <c:axId val="186269696"/>
+        <c:axId val="187256864"/>
+        <c:axId val="187251768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146549976"/>
+        <c:axId val="187256864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186269696"/>
+        <c:crossAx val="187251768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186269696"/>
+        <c:axId val="187251768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146549976"/>
+        <c:crossAx val="187256864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2710,11 +2718,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="186272048"/>
-        <c:axId val="186272440"/>
+        <c:axId val="186952728"/>
+        <c:axId val="186953120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186272048"/>
+        <c:axId val="186952728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,7 +2764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186272440"/>
+        <c:crossAx val="186953120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2764,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186272440"/>
+        <c:axId val="186953120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186272048"/>
+        <c:crossAx val="186952728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6028,7 +6036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7657,7 +7665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7842,7 +7850,9 @@
       <c r="J13" s="34">
         <v>35</v>
       </c>
-      <c r="K13" s="43"/>
+      <c r="K13" s="43">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E14" s="79" t="s">
@@ -7855,7 +7865,9 @@
       <c r="J14" s="91">
         <v>0</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="103">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="79"/>
@@ -7886,7 +7898,9 @@
       <c r="J17" s="42">
         <v>40</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="82" t="s">
@@ -7899,7 +7913,9 @@
       <c r="J18" s="42">
         <v>45</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="5:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="100" t="s">
@@ -7912,7 +7928,9 @@
       <c r="J19" s="42">
         <v>30</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="5:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="18"/>
